--- a/Haiyan/scripts/workbook2.for.stone.xlsx
+++ b/Haiyan/scripts/workbook2.for.stone.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:E475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9879,6 +9879,2356 @@
       </c>
       <c r="E381" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>2246.7384</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>1543.4355</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>1946.4856</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>2045.7848</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>1568.7807</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>2257.9313</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>2247.6516</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>1814.8824</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>1868.36625</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>2116.4131</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>1570.2772</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>1980.4028</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>1520.7799</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>2318.8639</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>2052.276</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>1554.1938</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>2064.7993</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>1761.2833</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>1617.2352</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>2162.9948</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>1983.4624</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>1528.0634</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>1979.4039</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>1726.736</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>1584.7497</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>1317.1334</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>1692.8782</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>1743.4553</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>1446.1887</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>1705.2985</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>2363.7403</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>2086.438</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>1931.5725</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>2133.8852</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>1681.4524</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>1819.4908</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>1917.4476</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>1909.5771</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>2052.8226</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>1431.4038</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>25.46810000000005</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>1385.7578</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>1765.1313</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>1744.6209</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>1433.0734</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>2198.5799</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>1782.7928</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>876.3299999999999</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>794.6053000000002</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>2153.9056</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>1533.1583</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>2076.0392</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>1735.8482</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>1454.1116</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>1658.3281</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>1780.2875</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>1868.36625</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>B8</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>1301.5484</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>1523.4043</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>1319.1202</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>982.2008000000001</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>1021.4074</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>1441.3619</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>777.2454000000002</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>1178.0435</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>B9</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>1899.2997</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>1611.7786</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>2043.6155</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>1535.0196</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>1285.7652</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>G9</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>1707.9984</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>1913.7024</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>1767.7803</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>1750.3401</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>954.4034000000001</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>1678.9307</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>1898.3838</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>F10</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>1873.2229</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>1993.6964</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>1749.0919</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>1868.36625</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>1925.7523</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>673.4965000000002</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>1646.0963</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>1254.8285</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>744.9627</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>2061.7433</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>1162.0443</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>1749.7295</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>B12</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>1304.5152</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>1797.3008</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>1123.5939</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>208.8226</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>TSVPlate2</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>{A24:P24}</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>DestPlate1</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>2030.5191</v>
       </c>
     </row>
   </sheetData>
